--- a/claimInterfaceTest/report/testreport.xlsx
+++ b/claimInterfaceTest/report/testreport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13125" windowWidth="28695"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7335" windowWidth="27345"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" state="visible" r:id="rId1"/>
@@ -42,106 +42,58 @@
     <t>检查点</t>
   </si>
   <si>
+    <t>关联</t>
+  </si>
+  <si>
     <t>是否执行</t>
   </si>
   <si>
     <t>test1</t>
   </si>
   <si>
-    <t>http://127.0.0.1:2080/</t>
-  </si>
-  <si>
-    <t>WebTours/home.html</t>
+    <t>reg</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>"username=justin1&amp;passwd=123456"</t>
+  </si>
+  <si>
+    <t>"用户已存在"</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
   <si>
     <t>GET</t>
   </si>
   <si>
-    <t>Form</t>
-  </si>
-  <si>
     <t>"0"</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;HTML&gt;
-&lt;HEAD&gt;
-	&lt;title&gt;Web Tours&lt;/title&gt;
-&lt;/head&gt;
-&lt;style&gt;
-	blockquote {font-family: tahoma; font-size : 10pt}
-	H1 {font-family: tahoma; font-size : 22pt; color: #003366}
-	small {font-family: tahoma; font-size : 8pt}
-	H3{font-family: tahoma; font-size : 10pt; color: black}
-	A {FONT-WEIGHT: bold; FONT-SIZE: 10pt; COLOR: black; FONT-FAMILY: Tahoma; TEXT-DECORATION: none}
-	A:hover{ FONT-WEIGHT: bold; FONT-SIZE: 10pt; COLOR: #993333; FONT-FAMILY: Tahoma;TEXT-DECORATION: underline}
-	TD {font-family: tahoma; font-size : 10pt; color: black}
-&lt;/style&gt;
-&lt;body bgcolor=#e0e7f1&gt;
-&lt;BR&gt;
-&lt;BR&gt;
-&lt;BR&gt;
-&lt;br &gt;
-&lt;table border=0&gt;
-&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;/tr&gt;
-&lt;TR&gt;&lt;TD&gt;&lt;/TD&gt;&lt;/TR&gt;
-&lt;TR&gt;&lt;TD&gt;
-&lt;blockquote&gt;
-&lt;H1&gt;&lt;b&gt;Web Tours&lt;/b&gt;&lt;/H1&gt;
-Welcome to the Web Tours site.
-&lt;br&gt;
-To make reservations,please enter your account information to the left.
-&lt;br&gt;
-If you haven't registered yet, &lt;A href="login.pl?username=&amp;amp;password=&amp;amp;getInfo=true" &gt;&lt;B&gt;sign up now&lt;/B&gt;&lt;/A&gt; to get access to all our resources.
-&lt;br&gt;
-To configure the server options, use &lt;A href="admin.pl" target=body &gt;&lt;b&gt;administration&lt;/b&gt;&lt;/A&gt; link.
-&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;
-&lt;br&gt;&lt;small&gt;
-This product uses parts of the SMT Kernel, Copyright (c) 1991-99 &lt;A href="http://www.imatix.com" target=new&gt;&lt;B&gt;&lt;small&gt;iMatix Corporation&lt;/small&gt;&lt;/B&gt;&lt;/A&gt; 
-&lt;/small&gt;
-&lt;/blockquote&gt;&lt;/TD&gt;
-&lt;TD&gt;&lt;/TD&gt;&lt;/TR&gt;
-&lt;/table&gt;
-&lt;/body&gt;
-&lt;/html&gt;
-</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>WebTours/login.pl</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>"userSession=124264.545240988zDQVifHpftfiDDDDDiDfVpVtfcHf&amp;username=andy&amp;password=123456&amp;login.x=53&amp;login.y=7&amp;login=Login&amp;JSFormSubmit=on"</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>&lt;!DOCTYPE html
-	PUBLIC "-//W3C//DTD XHTML 1.0 Transitional//EN"
-	 "http://www.w3.org/TR/xhtml1/DTD/xhtml1-transitional.dtd"&gt;
-&lt;html xmlns="http://www.w3.org/1999/xhtml" lang="en-US" xml:lang="en-US"&gt;
-&lt;head&gt;
-&lt;title&gt;Illegal Access&lt;/title&gt;
-&lt;meta http-equiv="Content-Type" content="text/html; charset=iso-8859-1" /&gt;
-&lt;/head&gt;
-&lt;body bgcolor="#E0E7F1"&gt;
-&lt;style&gt;blockquote {font-family: tahoma; font-size : 10pt}H1 {font-family: tahoma; font-size : 22pt; color: #993333}small {font-family: tahoma; font-size : 8pt}H3 {font-family: tahoma; font-size : 10pt; color: black}TD {font-family: tahoma; font-size : 10pt; color: black}&lt;/style&gt;&lt;blockquote&gt;You've reached this page incorrectly (probably a bad user session value).  Please use &lt;a target="_top" href="/WebTours/index.htm"&gt;this link.&lt;/a&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
+    <t>{
+    "msg": "这是我开发的第一个接口",
+    "msg_code": "0"
+}</t>
   </si>
 </sst>
 </file>
@@ -154,7 +106,7 @@
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -172,9 +124,8 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <charset val="134"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -195,14 +146,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -212,7 +155,82 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -227,74 +245,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -306,6 +258,13 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -316,19 +275,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,138 +449,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,24 +456,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +466,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,78 +558,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -609,155 +568,155 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="10" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="12" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="12" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="6" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="23" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,6 +725,9 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -1110,7 +1072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1118,15 +1080,16 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="3" width="23.5"/>
-    <col customWidth="1" max="4" min="4" style="3" width="19.125"/>
-    <col customWidth="1" max="6" min="6" style="3" width="10.5"/>
-    <col customWidth="1" max="7" min="7" style="3" width="27.75"/>
+    <col customWidth="1" max="3" min="3" style="4" width="23.5"/>
+    <col customWidth="1" max="4" min="4" style="4" width="19.125"/>
+    <col customWidth="1" max="6" min="6" style="4" width="10.5"/>
+    <col customWidth="1" max="7" min="7" style="4" width="27.75"/>
+    <col customWidth="1" max="8" min="8" style="4" width="19.125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1154,20 +1117,21 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row customHeight="1" ht="122" r="2" s="4" spans="1:12">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="1" t="n"/>
       <c r="D2" t="s">
         <v>11</v>
       </c>
@@ -1177,7 +1141,7 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
@@ -1193,7 +1157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row customHeight="1" ht="122" r="3" s="3" spans="1:12">
+    <row r="3" spans="1:12">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -1206,32 +1170,23 @@
       <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:C3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink display="http://127.0.0.1:2080/" ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
